--- a/output/ejecucion_1/gridsearch_results/base1/b1_ci_results_gs_rf_o.xlsx
+++ b/output/ejecucion_1/gridsearch_results/base1/b1_ci_results_gs_rf_o.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>207.1647539615631</v>
+        <v>164.5638641834259</v>
       </c>
       <c r="C2">
-        <v>0.688242649742399</v>
+        <v>1.819545263381624</v>
       </c>
       <c r="D2">
-        <v>4.180356788635254</v>
+        <v>3.958195447921753</v>
       </c>
       <c r="E2">
-        <v>0.179138037334503</v>
+        <v>0.4145497810354433</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>414.5436230659485</v>
+        <v>354.8071486473083</v>
       </c>
       <c r="C3">
-        <v>7.62204022849738</v>
+        <v>18.72283649686717</v>
       </c>
       <c r="D3">
-        <v>7.564586591720581</v>
+        <v>6.271195220947265</v>
       </c>
       <c r="E3">
-        <v>0.4480988269595234</v>
+        <v>0.6932291159734012</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>841.4282015323639</v>
+        <v>779.4766010761261</v>
       </c>
       <c r="C4">
-        <v>1.607849023029468</v>
+        <v>8.734464845723336</v>
       </c>
       <c r="D4">
-        <v>6.911328506469727</v>
+        <v>6.177334833145141</v>
       </c>
       <c r="E4">
-        <v>1.069730552700726</v>
+        <v>1.061880828062358</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>316.2990705013275</v>
+        <v>296.0309174060822</v>
       </c>
       <c r="C5">
-        <v>6.298239315936696</v>
+        <v>6.312961264444795</v>
       </c>
       <c r="D5">
-        <v>8.025602293014526</v>
+        <v>6.502901935577393</v>
       </c>
       <c r="E5">
-        <v>1.127153751087825</v>
+        <v>1.17016737817234</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>618.6166470050812</v>
+        <v>572.5371844768524</v>
       </c>
       <c r="C6">
-        <v>2.15870197335954</v>
+        <v>1.046820829642076</v>
       </c>
       <c r="D6">
-        <v>6.51554799079895</v>
+        <v>5.631186389923096</v>
       </c>
       <c r="E6">
-        <v>1.316381725097747</v>
+        <v>1.190985477743646</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1231.104965257645</v>
+        <v>1145.533498477936</v>
       </c>
       <c r="C7">
-        <v>5.193090773167789</v>
+        <v>4.423988606117743</v>
       </c>
       <c r="D7">
-        <v>8.456116914749146</v>
+        <v>7.072550773620605</v>
       </c>
       <c r="E7">
-        <v>1.435656498100237</v>
+        <v>1.253265300936252</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>415.238610458374</v>
+        <v>387.1779374599457</v>
       </c>
       <c r="C8">
-        <v>4.225159307014997</v>
+        <v>3.156368196832271</v>
       </c>
       <c r="D8">
-        <v>6.372568464279174</v>
+        <v>5.312621593475342</v>
       </c>
       <c r="E8">
-        <v>0.3754735075075186</v>
+        <v>0.3734209686066884</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>842.5610891819</v>
+        <v>752.0191740036011</v>
       </c>
       <c r="C9">
-        <v>16.7220311666343</v>
+        <v>2.210715666415394</v>
       </c>
       <c r="D9">
-        <v>9.130520868301392</v>
+        <v>6.447424268722534</v>
       </c>
       <c r="E9">
-        <v>0.2018789917158793</v>
+        <v>0.6474194059469235</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1755.92091178894</v>
+        <v>1496.059204816818</v>
       </c>
       <c r="C10">
-        <v>12.02418326442579</v>
+        <v>2.090992319611555</v>
       </c>
       <c r="D10">
-        <v>10.03298192024231</v>
+        <v>8.130806112289429</v>
       </c>
       <c r="E10">
-        <v>0.7276188030208665</v>
+        <v>0.6848270952819346</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>361.5254287719727</v>
+        <v>303.9344966888428</v>
       </c>
       <c r="C11">
-        <v>4.008845746232639</v>
+        <v>2.143104431177518</v>
       </c>
       <c r="D11">
-        <v>9.744675254821777</v>
+        <v>7.097133731842041</v>
       </c>
       <c r="E11">
-        <v>0.6755205390387816</v>
+        <v>0.6915775617205555</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>695.1009206295014</v>
+        <v>594.8361550807953</v>
       </c>
       <c r="C12">
-        <v>6.311697301736109</v>
+        <v>2.935440986060367</v>
       </c>
       <c r="D12">
-        <v>10.18105554580688</v>
+        <v>7.930781650543213</v>
       </c>
       <c r="E12">
-        <v>0.360232487325238</v>
+        <v>0.4163861341295256</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1368.484094572067</v>
+        <v>1168.329228258133</v>
       </c>
       <c r="C13">
-        <v>8.926905119073442</v>
+        <v>7.47464352032362</v>
       </c>
       <c r="D13">
-        <v>10.22536449432373</v>
+        <v>7.786657476425171</v>
       </c>
       <c r="E13">
-        <v>0.7426533748331926</v>
+        <v>0.6796401840861508</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>511.185369682312</v>
+        <v>432.7356279373169</v>
       </c>
       <c r="C14">
-        <v>5.134406878471329</v>
+        <v>4.435914836356953</v>
       </c>
       <c r="D14">
-        <v>9.998431968688966</v>
+        <v>7.687735366821289</v>
       </c>
       <c r="E14">
-        <v>0.5814608482966193</v>
+        <v>0.4796676226227088</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>993.334308052063</v>
+        <v>846.9339932918549</v>
       </c>
       <c r="C15">
-        <v>10.34251199498689</v>
+        <v>10.86141788666196</v>
       </c>
       <c r="D15">
-        <v>9.930548715591431</v>
+        <v>7.945489406585693</v>
       </c>
       <c r="E15">
-        <v>0.4731946774151803</v>
+        <v>0.5472781446604964</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1997.103363132477</v>
+        <v>1690.790585613251</v>
       </c>
       <c r="C16">
-        <v>20.06456643515567</v>
+        <v>14.08237201106001</v>
       </c>
       <c r="D16">
-        <v>10.5202232837677</v>
+        <v>8.448717880249024</v>
       </c>
       <c r="E16">
-        <v>0.4687045551574959</v>
+        <v>0.9075278783903197</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>674.2032395839691</v>
+        <v>566.1129815578461</v>
       </c>
       <c r="C17">
-        <v>6.007945346248249</v>
+        <v>3.41215894203568</v>
       </c>
       <c r="D17">
-        <v>10.23307156562805</v>
+        <v>8.320358562469483</v>
       </c>
       <c r="E17">
-        <v>0.3151800641899308</v>
+        <v>0.389285599815171</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1312.641957569122</v>
+        <v>1098.459630298614</v>
       </c>
       <c r="C18">
-        <v>7.245188338093181</v>
+        <v>6.568691610759929</v>
       </c>
       <c r="D18">
-        <v>9.745977258682251</v>
+        <v>7.741063690185547</v>
       </c>
       <c r="E18">
-        <v>0.6303085629430696</v>
+        <v>0.6472925218204921</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2582.392557430268</v>
+        <v>2235.206554603576</v>
       </c>
       <c r="C19">
-        <v>14.4791932304256</v>
+        <v>17.00333680274761</v>
       </c>
       <c r="D19">
-        <v>10.71754794120789</v>
+        <v>8.569094944000245</v>
       </c>
       <c r="E19">
-        <v>0.1877893265932804</v>
+        <v>0.2319153980461384</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>413.5681067466736</v>
+        <v>359.5666460990906</v>
       </c>
       <c r="C20">
-        <v>3.900591983983634</v>
+        <v>4.054923299339243</v>
       </c>
       <c r="D20">
-        <v>9.674415922164917</v>
+        <v>7.655160522460937</v>
       </c>
       <c r="E20">
-        <v>0.5649286424591741</v>
+        <v>0.4252345147805485</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>805.0589470386506</v>
+        <v>704.9846969127655</v>
       </c>
       <c r="C21">
-        <v>11.67865245673606</v>
+        <v>10.89732795019918</v>
       </c>
       <c r="D21">
-        <v>10.20502309799194</v>
+        <v>8.03421630859375</v>
       </c>
       <c r="E21">
-        <v>0.5454266997767815</v>
+        <v>0.4733236186117118</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1588.444846534729</v>
+        <v>1387.62425866127</v>
       </c>
       <c r="C22">
-        <v>18.40398764342916</v>
+        <v>18.73162652343346</v>
       </c>
       <c r="D22">
-        <v>10.54171347618103</v>
+        <v>8.665713119506837</v>
       </c>
       <c r="E22">
-        <v>0.4785268516081101</v>
+        <v>0.2937387384025738</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>592.2442163944245</v>
+        <v>515.4479577541351</v>
       </c>
       <c r="C23">
-        <v>8.480976556090026</v>
+        <v>7.98518772219839</v>
       </c>
       <c r="D23">
-        <v>9.83056411743164</v>
+        <v>8.135776281356812</v>
       </c>
       <c r="E23">
-        <v>0.433031272300809</v>
+        <v>0.2557100318973322</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1156.864243125915</v>
+        <v>1010.814265394211</v>
       </c>
       <c r="C24">
-        <v>16.84212089489931</v>
+        <v>15.95101423035066</v>
       </c>
       <c r="D24">
-        <v>9.734412002563477</v>
+        <v>8.154685497283936</v>
       </c>
       <c r="E24">
-        <v>0.2618737452459121</v>
+        <v>0.1551566279764976</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2191.589325046539</v>
+        <v>2016.94050359726</v>
       </c>
       <c r="C25">
-        <v>33.16152137309047</v>
+        <v>25.86675413702536</v>
       </c>
       <c r="D25">
-        <v>9.245755290985107</v>
+        <v>8.412013244628906</v>
       </c>
       <c r="E25">
-        <v>0.4591530041480673</v>
+        <v>0.4998322299607175</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>726.4544356822968</v>
+        <v>672.9128941535949</v>
       </c>
       <c r="C26">
-        <v>10.21891030386819</v>
+        <v>6.988431497307461</v>
       </c>
       <c r="D26">
-        <v>8.865299367904663</v>
+        <v>8.112998151779175</v>
       </c>
       <c r="E26">
-        <v>0.5587818099407392</v>
+        <v>0.1836148973457826</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1403.627597141266</v>
+        <v>1318.110341501236</v>
       </c>
       <c r="C27">
-        <v>14.81267021598592</v>
+        <v>14.45998430083557</v>
       </c>
       <c r="D27">
-        <v>8.593641757965088</v>
+        <v>7.342122220993042</v>
       </c>
       <c r="E27">
-        <v>1.032485527493668</v>
+        <v>0.9033215667018971</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1944.853940296173</v>
+        <v>1788.452019882202</v>
       </c>
       <c r="C28">
-        <v>234.2002540260889</v>
+        <v>233.5091938222065</v>
       </c>
       <c r="D28">
-        <v>2.93153600692749</v>
+        <v>2.087626314163208</v>
       </c>
       <c r="E28">
-        <v>1.857156111219249</v>
+        <v>1.689511123396893</v>
       </c>
       <c r="F28">
         <v>30</v>
